--- a/Data/EC/NIT-9006746883.xlsx
+++ b/Data/EC/NIT-9006746883.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E8980D8-D52B-4733-AA72-16798BDDDE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34A9684A-D025-483E-89FE-F16D2F21B5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F53AE45E-07FF-423F-9024-1DAC1C6E3F86}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E9EEB70B-9398-4044-B228-054CF0CEE0C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,13 +71,7 @@
     <t>ADRIANA MARGARITA CARCAMO ARAUJO</t>
   </si>
   <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>1047394029</t>
-  </si>
-  <si>
-    <t>ANDREINA SAAVEDRA PAYARES</t>
+    <t>2508</t>
   </si>
   <si>
     <t>45754873</t>
@@ -86,12 +80,6 @@
     <t>MONICA PATRICIA NAVAS BARRIOS</t>
   </si>
   <si>
-    <t>22810441</t>
-  </si>
-  <si>
-    <t>LINAY GALARCIO HERNANDEZ</t>
-  </si>
-  <si>
     <t>73135427</t>
   </si>
   <si>
@@ -104,22 +92,10 @@
     <t>KARINA GUTIERREZ CASTILLA</t>
   </si>
   <si>
-    <t>1047474987</t>
-  </si>
-  <si>
-    <t>MARIA JOSE MARRUGO ARAUJO</t>
-  </si>
-  <si>
     <t>1143397735</t>
   </si>
   <si>
     <t>GREY LINETH CARPIO MARIMON</t>
-  </si>
-  <si>
-    <t>1143378715</t>
-  </si>
-  <si>
-    <t>MARIA JOSE BROCHERO CARO</t>
   </si>
   <si>
     <t>1044923139</t>
@@ -236,22 +212,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -451,23 +427,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,10 +471,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -551,7 +527,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF76ADBE-9AEB-A8F3-3F67-579904D407F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14CF762-B9BC-12F6-1C0E-FB050E0D9939}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,8 +878,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1402A0FF-C50F-4F70-BE31-FD214A6878D5}">
-  <dimension ref="B2:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0261E8-61D9-483F-8A71-95B89C9A0D23}">
+  <dimension ref="B2:J29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -927,7 +903,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -972,7 +948,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1004,12 +980,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1310586</v>
+        <v>1044886</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1020,14 +996,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -1057,13 +1033,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1126,10 +1102,10 @@
         <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>56940</v>
+        <v>147000</v>
       </c>
       <c r="G18" s="18">
-        <v>1423500</v>
+        <v>3675000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1149,10 +1125,10 @@
         <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>56940</v>
+        <v>80346</v>
       </c>
       <c r="G19" s="18">
-        <v>1423500</v>
+        <v>2008650</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1172,10 +1148,10 @@
         <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>147000</v>
+        <v>58400</v>
       </c>
       <c r="G20" s="18">
-        <v>3675000</v>
+        <v>1460000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1195,10 +1171,10 @@
         <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>80346</v>
+        <v>64000</v>
       </c>
       <c r="G21" s="18">
-        <v>2008650</v>
+        <v>1600000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1218,158 +1194,66 @@
         <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>80000</v>
+        <v>58400</v>
       </c>
       <c r="G22" s="18">
-        <v>767154</v>
+        <v>1460000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="18">
-        <v>58400</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1460000</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="18">
-        <v>71820</v>
-      </c>
-      <c r="G24" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="18">
-        <v>64000</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1600000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="18">
-        <v>58400</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1460000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="24">
+      <c r="F23" s="24">
         <v>147000</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G23" s="24">
         <v>3675000</v>
       </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="H32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="H33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="H28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="H29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
